--- a/NBA 2019-20 Opening Night/2019-10-23 - New Orleans Pelicans (122) at Toronto Raptors (130).xlsx
+++ b/NBA 2019-20 Opening Night/2019-10-23 - New Orleans Pelicans (122) at Toronto Raptors (130).xlsx
@@ -966,7 +966,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1035,7 +1035,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1355,7 +1355,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1892,7 +1892,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1983,7 +1983,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2165,7 +2165,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2420,7 +2420,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2593,7 +2593,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4218,7 +4218,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4573,7 +4573,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4846,7 +4846,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5119,7 +5119,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6349,7 +6349,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6440,7 +6440,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6804,7 +6804,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6986,7 +6986,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7250,7 +7250,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -7523,7 +7523,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8323,7 +8323,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -8461,7 +8461,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -21235,7 +21235,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -21373,7 +21373,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -21511,7 +21511,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -22567,7 +22567,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -23650,7 +23650,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -23905,7 +23905,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -24087,7 +24087,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -26663,7 +26663,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -27529,7 +27529,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -28013,7 +28013,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -28195,7 +28195,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -28364,7 +28364,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -28455,7 +28455,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -28706,7 +28706,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -29506,7 +29506,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -29852,7 +29852,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -31936,7 +31936,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -32100,7 +32100,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -32533,7 +32533,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -33079,7 +33079,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -33352,7 +33352,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -33443,7 +33443,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -34187,7 +34187,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -34429,7 +34429,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -35000,7 +35000,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -51140,7 +51140,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -52135,7 +52135,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -53489,7 +53489,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -53969,7 +53969,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -54697,7 +54697,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -55243,7 +55243,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -55745,7 +55745,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -56917,7 +56917,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>DERRICK FAVORS - #15</t>
+          <t>DERRICK FAVORS - #22</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -58151,7 +58151,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>JJ REDICK - #17</t>
+          <t>JJ REDICK - #4</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
